--- a/analysis/metadata/P08_2/P08_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_2/P08_2_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>25/08/2020 00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>25/08/2020 00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>02/09/2020 00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>02/09/2020 00:00</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>23/08/2020 00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>23/08/2020 00:00</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>13/08/2020 00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>13/08/2020 00:00</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>07/08/2020 00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>07/08/2020 00:00</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>11/08/2020 00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>11/08/2020 00:00</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>18/08/2020 00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>18/08/2020 00:00</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>18/08/2020 00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>18/08/2020 00:00</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>09/08/2020 00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>09/08/2020 00:00</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>09/08/2020 00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>09/08/2020 00:00</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>13/08/2020 00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>13/08/2020 00:00</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>25/08/2020 00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>25/08/2020 00:00</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/08/2020 00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/08/2020 00:00</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/08/2020 00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/08/2020 00:00</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>13/08/2020 00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>13/08/2020 00:00</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>23/08/2020 00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>23/08/2020 00:00</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>16/08/2020 00:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>16/08/2020 00:00</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>16/08/2020 00:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>16/08/2020 00:00</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>07/08/2020 00:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>07/08/2020 00:00</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>27/08/2020 00:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>27/08/2020 00:00</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>02/09/2020 00:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>02/09/2020 00:00</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>02/09/2020 00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>02/09/2020 00:00</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>18/08/2020 00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>18/08/2020 00:00</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>09/08/2020 00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>09/08/2020 00:00</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>18/08/2020 00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>18/08/2020 00:00</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>27/08/2020 00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>27/08/2020 00:00</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>27/08/2020 00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>27/08/2020 00:00</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>18/08/2020 00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>18/08/2020 00:00</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>09/08/2020 00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>09/08/2020 00:00</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>05/08/2020 00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>05/08/2020 00:00</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>23/08/2020 00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>23/08/2020 00:00</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>03/08/2020 00:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>03/08/2020 00:00</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>05/08/2020 00:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>05/08/2020 00:00</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>05/08/2020 00:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>05/08/2020 00:00</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>23/08/2020 00:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>23/08/2020 00:00</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>09/08/2020 00:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>09/08/2020 00:00</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>16/08/2020 00:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>16/08/2020 00:00</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>23/08/2020 00:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>23/08/2020 00:00</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>25/08/2020 00:00</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>25/08/2020 00:00</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>03/08/2020 00:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>03/08/2020 00:00</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>23/08/2020 00:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>23/08/2020 00:00</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/08/2020 00:00</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/08/2020 00:00</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>07/08/2020 00:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>07/08/2020 00:00</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>11/08/2020 00:00</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>11/08/2020 00:00</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>17/09/2020 00:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>17/09/2020 00:00</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>17/09/2020 00:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>17/09/2020 00:00</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>17/09/2020 00:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>17/09/2020 00:00</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 12:15</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 12:15</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 11:39</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 11:39</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 11:01</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2020-09-20</t>
+          <t>20/09/2020 11:01</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>17/09/2020 00:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4362,7 +4362,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>17/09/2020 00:00</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4410,7 +4410,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>17/09/2020 00:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4435,7 +4435,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>17/09/2020 00:00</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>17/09/2020 00:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>17/09/2020 00:00</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-10-05</t>
+          <t>05/10/2020 15:20</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2020-10-05</t>
+          <t>05/10/2020 15:20</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-10-05</t>
+          <t>05/10/2020 15:20</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2020-10-05</t>
+          <t>05/10/2020 15:20</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-10-05</t>
+          <t>05/10/2020 15:20</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2020-10-05</t>
+          <t>05/10/2020 15:20</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4775,7 +4775,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>17/09/2020 14:08</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4800,7 +4800,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>17/09/2020 14:08</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>17/09/2020 13:52</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>17/09/2020 13:52</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>17/09/2020 13:19</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>17/09/2020 13:19</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>17/09/2020 10:42</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5019,7 +5019,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>17/09/2020 10:42</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5067,7 +5067,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>17/09/2020 10:07</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>17/09/2020 10:07</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>17/09/2020 09:16</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>17/09/2020 09:16</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>06/09/2020 00:00</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>06/09/2020 00:00</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>06/09/2020 00:00</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>06/09/2020 00:00</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>06/09/2020 00:00</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>06/09/2020 00:00</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5432,7 +5432,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>30/08/2020 00:00</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>30/08/2020 00:00</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>30/08/2020 00:00</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5530,7 +5530,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>30/08/2020 00:00</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>06/09/2020 00:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>06/09/2020 00:00</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5651,7 +5651,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>30/08/2020 00:00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5676,7 +5676,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>30/08/2020 00:00</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>05/09/2020 00:00</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>05/09/2020 00:00</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>05/09/2020 00:00</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>05/09/2020 00:00</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5870,7 +5870,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>05/09/2020 00:00</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5895,7 +5895,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>05/09/2020 00:00</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>06/09/2020 00:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5968,7 +5968,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>06/09/2020 00:00</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>06/09/2020 00:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>06/09/2020 00:00</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>30/08/2020 00:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6114,7 +6114,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>30/08/2020 00:00</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/08/2020 00:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/08/2020 00:00</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/08/2020 00:00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/08/2020 00:00</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/08/2020 00:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6333,7 +6333,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/08/2020 00:00</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>20/08/2020 00:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>20/08/2020 00:00</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6454,7 +6454,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>20/08/2020 00:00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>20/08/2020 00:00</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>20/08/2020 00:00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>20/08/2020 00:00</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6600,7 +6600,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>29/08/2020 00:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>29/08/2020 00:00</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -6673,7 +6673,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2020-09-13</t>
+          <t>13/09/2020 08:54</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2020-09-13</t>
+          <t>13/09/2020 08:54</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -6746,7 +6746,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2020-09-13</t>
+          <t>13/09/2020 07:51</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2020-09-13</t>
+          <t>13/09/2020 07:51</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -6819,7 +6819,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2020-09-13</t>
+          <t>13/09/2020 06:27</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2020-09-13</t>
+          <t>13/09/2020 06:27</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -6892,7 +6892,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>30/08/2020 00:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>30/08/2020 00:00</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -6965,7 +6965,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>30/08/2020 00:00</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>30/08/2020 00:00</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>29/08/2020 00:00</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>29/08/2020 00:00</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>29/08/2020 00:00</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>29/08/2020 00:00</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7209,7 +7209,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7282,7 +7282,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7330,7 +7330,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7355,7 +7355,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7574,7 +7574,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>21/08/2020 00:00</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -7622,7 +7622,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/08/2020 00:00</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7647,7 +7647,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/08/2020 00:00</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/08/2020 00:00</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>15/08/2020 00:00</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>12/08/2020 00:00</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>12/08/2020 00:00</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>20/09/2020 00:00</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7866,7 +7866,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>20/09/2020 00:00</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>16/09/2020 00:00</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>16/09/2020 00:00</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -7987,7 +7987,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>14/09/2020 00:00</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -8012,7 +8012,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>14/09/2020 00:00</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -8060,7 +8060,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>20/09/2020 00:00</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>20/09/2020 00:00</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>14/09/2020 00:00</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8158,7 +8158,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>14/09/2020 00:00</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -8206,7 +8206,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>16/09/2020 00:00</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>16/09/2020 00:00</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>16/09/2020 00:00</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>16/09/2020 00:00</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -8352,7 +8352,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>20/09/2020 00:00</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>20/09/2020 00:00</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">

--- a/analysis/metadata/P08_2/P08_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_2/P08_2_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>25/08/2020 00:00</t>
+          <t>2020-08-25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>25/08/2020 00:00</t>
+          <t>2020-08-25</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>02/09/2020 00:00</t>
+          <t>2020-09-02</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>02/09/2020 00:00</t>
+          <t>2020-09-02</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>23/08/2020 00:00</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>23/08/2020 00:00</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>13/08/2020 00:00</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>13/08/2020 00:00</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>07/08/2020 00:00</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>07/08/2020 00:00</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>11/08/2020 00:00</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>11/08/2020 00:00</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>18/08/2020 00:00</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>18/08/2020 00:00</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>18/08/2020 00:00</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>18/08/2020 00:00</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09/08/2020 00:00</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>09/08/2020 00:00</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>09/08/2020 00:00</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>09/08/2020 00:00</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>13/08/2020 00:00</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>13/08/2020 00:00</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>25/08/2020 00:00</t>
+          <t>2020-08-25</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>25/08/2020 00:00</t>
+          <t>2020-08-25</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>15/08/2020 00:00</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>15/08/2020 00:00</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>15/08/2020 00:00</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>15/08/2020 00:00</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>13/08/2020 00:00</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>13/08/2020 00:00</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>23/08/2020 00:00</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>23/08/2020 00:00</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>16/08/2020 00:00</t>
+          <t>2020-08-16</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>16/08/2020 00:00</t>
+          <t>2020-08-16</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>16/08/2020 00:00</t>
+          <t>2020-08-16</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>16/08/2020 00:00</t>
+          <t>2020-08-16</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1782,7 +1782,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>07/08/2020 00:00</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>07/08/2020 00:00</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>27/08/2020 00:00</t>
+          <t>2020-08-27</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>27/08/2020 00:00</t>
+          <t>2020-08-27</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>02/09/2020 00:00</t>
+          <t>2020-09-02</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>02/09/2020 00:00</t>
+          <t>2020-09-02</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>02/09/2020 00:00</t>
+          <t>2020-09-02</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>02/09/2020 00:00</t>
+          <t>2020-09-02</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>18/08/2020 00:00</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>18/08/2020 00:00</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>09/08/2020 00:00</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>09/08/2020 00:00</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>18/08/2020 00:00</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>18/08/2020 00:00</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>27/08/2020 00:00</t>
+          <t>2020-08-27</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>27/08/2020 00:00</t>
+          <t>2020-08-27</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>27/08/2020 00:00</t>
+          <t>2020-08-27</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>27/08/2020 00:00</t>
+          <t>2020-08-27</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2439,7 +2439,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>18/08/2020 00:00</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>18/08/2020 00:00</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09/08/2020 00:00</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>09/08/2020 00:00</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2658,7 +2658,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>05/08/2020 00:00</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>05/08/2020 00:00</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>23/08/2020 00:00</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>23/08/2020 00:00</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>03/08/2020 00:00</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>03/08/2020 00:00</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>05/08/2020 00:00</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>05/08/2020 00:00</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>05/08/2020 00:00</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>05/08/2020 00:00</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>23/08/2020 00:00</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>23/08/2020 00:00</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>09/08/2020 00:00</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>09/08/2020 00:00</t>
+          <t>2020-08-09</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>16/08/2020 00:00</t>
+          <t>2020-08-16</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>16/08/2020 00:00</t>
+          <t>2020-08-16</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>23/08/2020 00:00</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>23/08/2020 00:00</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>25/08/2020 00:00</t>
+          <t>2020-08-25</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>25/08/2020 00:00</t>
+          <t>2020-08-25</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>03/08/2020 00:00</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/08/2020 00:00</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>23/08/2020 00:00</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3632,7 +3632,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>23/08/2020 00:00</t>
+          <t>2020-08-23</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>15/08/2020 00:00</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>15/08/2020 00:00</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>07/08/2020 00:00</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>07/08/2020 00:00</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>11/08/2020 00:00</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>11/08/2020 00:00</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>17/09/2020 00:00</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>17/09/2020 00:00</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>17/09/2020 00:00</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>17/09/2020 00:00</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>17/09/2020 00:00</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>17/09/2020 00:00</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>20/09/2020 12:15</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>20/09/2020 12:15</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>20/09/2020 11:39</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>20/09/2020 11:39</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>20/09/2020 11:01</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>20/09/2020 11:01</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>17/09/2020 00:00</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -4362,7 +4362,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>17/09/2020 00:00</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4410,7 +4410,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>17/09/2020 00:00</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4435,7 +4435,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>17/09/2020 00:00</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>17/09/2020 00:00</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>17/09/2020 00:00</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4556,7 +4556,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>05/10/2020 15:20</t>
+          <t>2020-10-05</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>05/10/2020 15:20</t>
+          <t>2020-10-05</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>05/10/2020 15:20</t>
+          <t>2020-10-05</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>05/10/2020 15:20</t>
+          <t>2020-10-05</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>05/10/2020 15:20</t>
+          <t>2020-10-05</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>05/10/2020 15:20</t>
+          <t>2020-10-05</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4775,7 +4775,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>17/09/2020 14:08</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4800,7 +4800,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>17/09/2020 14:08</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>17/09/2020 13:52</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>17/09/2020 13:52</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>17/09/2020 13:19</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4946,7 +4946,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>17/09/2020 13:19</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>17/09/2020 10:42</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5019,7 +5019,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>17/09/2020 10:42</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5067,7 +5067,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>17/09/2020 10:07</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>17/09/2020 10:07</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>17/09/2020 09:16</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>17/09/2020 09:16</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>06/09/2020 00:00</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>06/09/2020 00:00</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>06/09/2020 00:00</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>06/09/2020 00:00</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5359,7 +5359,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>06/09/2020 00:00</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>06/09/2020 00:00</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5432,7 +5432,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>30/08/2020 00:00</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>30/08/2020 00:00</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5505,7 +5505,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>30/08/2020 00:00</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5530,7 +5530,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>30/08/2020 00:00</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5578,7 +5578,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>06/09/2020 00:00</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>06/09/2020 00:00</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5651,7 +5651,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>30/08/2020 00:00</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5676,7 +5676,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>30/08/2020 00:00</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>05/09/2020 00:00</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>05/09/2020 00:00</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>05/09/2020 00:00</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>05/09/2020 00:00</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5870,7 +5870,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>05/09/2020 00:00</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5895,7 +5895,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>05/09/2020 00:00</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>06/09/2020 00:00</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5968,7 +5968,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>06/09/2020 00:00</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>06/09/2020 00:00</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>06/09/2020 00:00</t>
+          <t>2020-09-06</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -6089,7 +6089,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>30/08/2020 00:00</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6114,7 +6114,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>30/08/2020 00:00</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>15/08/2020 00:00</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>15/08/2020 00:00</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>15/08/2020 00:00</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>15/08/2020 00:00</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>15/08/2020 00:00</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -6333,7 +6333,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>15/08/2020 00:00</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>20/08/2020 00:00</t>
+          <t>2020-08-20</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>20/08/2020 00:00</t>
+          <t>2020-08-20</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6454,7 +6454,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>20/08/2020 00:00</t>
+          <t>2020-08-20</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>20/08/2020 00:00</t>
+          <t>2020-08-20</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>20/08/2020 00:00</t>
+          <t>2020-08-20</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6552,7 +6552,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>20/08/2020 00:00</t>
+          <t>2020-08-20</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6600,7 +6600,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>29/08/2020 00:00</t>
+          <t>2020-08-29</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>29/08/2020 00:00</t>
+          <t>2020-08-29</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -6673,7 +6673,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>13/09/2020 08:54</t>
+          <t>2020-09-13</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>13/09/2020 08:54</t>
+          <t>2020-09-13</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -6746,7 +6746,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>13/09/2020 07:51</t>
+          <t>2020-09-13</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>13/09/2020 07:51</t>
+          <t>2020-09-13</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -6819,7 +6819,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>13/09/2020 06:27</t>
+          <t>2020-09-13</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6844,7 +6844,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>13/09/2020 06:27</t>
+          <t>2020-09-13</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -6892,7 +6892,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>30/08/2020 00:00</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6917,7 +6917,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>30/08/2020 00:00</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -6965,7 +6965,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>30/08/2020 00:00</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>30/08/2020 00:00</t>
+          <t>2020-08-30</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>29/08/2020 00:00</t>
+          <t>2020-08-29</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>29/08/2020 00:00</t>
+          <t>2020-08-29</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -7111,7 +7111,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>29/08/2020 00:00</t>
+          <t>2020-08-29</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>29/08/2020 00:00</t>
+          <t>2020-08-29</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7209,7 +7209,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -7282,7 +7282,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -7330,7 +7330,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -7355,7 +7355,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7574,7 +7574,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>21/08/2020 00:00</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -7622,7 +7622,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>15/08/2020 00:00</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7647,7 +7647,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>15/08/2020 00:00</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>15/08/2020 00:00</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>15/08/2020 00:00</t>
+          <t>2020-08-15</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>12/08/2020 00:00</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>12/08/2020 00:00</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>20/09/2020 00:00</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7866,7 +7866,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>20/09/2020 00:00</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>16/09/2020 00:00</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>16/09/2020 00:00</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -7987,7 +7987,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>14/09/2020 00:00</t>
+          <t>2020-09-14</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -8012,7 +8012,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>14/09/2020 00:00</t>
+          <t>2020-09-14</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
@@ -8060,7 +8060,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>20/09/2020 00:00</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>20/09/2020 00:00</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>14/09/2020 00:00</t>
+          <t>2020-09-14</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -8158,7 +8158,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>14/09/2020 00:00</t>
+          <t>2020-09-14</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -8206,7 +8206,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>16/09/2020 00:00</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>16/09/2020 00:00</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>16/09/2020 00:00</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>16/09/2020 00:00</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
@@ -8352,7 +8352,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>20/09/2020 00:00</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>20/09/2020 00:00</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">

--- a/analysis/metadata/P08_2/P08_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_2/P08_2_minimal_metadata.xlsx
@@ -4556,7 +4556,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2020-10-05</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2020-10-05</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2020-10-05</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2020-10-05</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2020-10-05</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2020-10-05</t>
+          <t>2020-09-20</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">

--- a/analysis/metadata/P08_2/P08_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_2/P08_2_minimal_metadata.xlsx
@@ -466,6 +466,11 @@
           <t>6120</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>DANKALK, Aggersund</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>2020-08-25</t>
@@ -539,6 +544,11 @@
           <t>6230</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Dall Hede</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>2020-09-02</t>
@@ -612,6 +622,11 @@
           <t>2140</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Stenbjerg Klitplantage</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>2020-08-23</t>
@@ -685,6 +700,11 @@
           <t>2140</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>2020-08-13</t>
@@ -758,6 +778,11 @@
           <t>4030</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>2020-08-07</t>
@@ -831,6 +856,11 @@
           <t>4030</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Dall hede</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>2020-08-11</t>
@@ -904,6 +934,11 @@
           <t>4030</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Ø Bakker</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>2020-08-18</t>
@@ -977,6 +1012,11 @@
           <t>4030</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ø Bakker</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>2020-08-18</t>
@@ -1050,6 +1090,11 @@
           <t>6230</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Hammer Bakker</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>2020-08-09</t>
@@ -1123,6 +1168,11 @@
           <t>6120</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Lønstrup</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>2020-08-09</t>
@@ -1196,6 +1246,11 @@
           <t>2140</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>2020-08-13</t>
@@ -1269,6 +1324,11 @@
           <t>6120</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>DANKALK, Aggersund</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>2020-08-25</t>
@@ -1342,6 +1402,11 @@
           <t>6210</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Nørresundby</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>2020-08-15</t>
@@ -1415,6 +1480,11 @@
           <t>6210</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Nørresundby</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>2020-08-15</t>
@@ -1488,6 +1558,11 @@
           <t>2140</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>2020-08-13</t>
@@ -1561,6 +1636,11 @@
           <t>2140</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Lodbjerg Klitplantage</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>2020-08-23</t>
@@ -1634,6 +1714,11 @@
           <t>6210</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Dokkedal</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>2020-08-16</t>
@@ -1707,6 +1792,11 @@
           <t>6210</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Dokkedal</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>2020-08-16</t>
@@ -1780,6 +1870,11 @@
           <t>4030</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>2020-08-07</t>
@@ -1853,6 +1948,11 @@
           <t>4010</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>2020-08-27</t>
@@ -1926,6 +2026,11 @@
           <t>6230</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Dall Hede</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>2020-09-02</t>
@@ -1999,6 +2104,11 @@
           <t>6230</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Dall Hede</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>2020-09-02</t>
@@ -2072,6 +2182,11 @@
           <t>4010</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Ø Bakker</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
           <t>2020-08-18</t>
@@ -2145,6 +2260,11 @@
           <t>6120</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Lønstrup</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
           <t>2020-08-09</t>
@@ -2218,6 +2338,11 @@
           <t>4010</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Ø Bakker</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
           <t>2020-08-18</t>
@@ -2291,6 +2416,11 @@
           <t>4010</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>2020-08-27</t>
@@ -2364,6 +2494,11 @@
           <t>4010</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Tranum klitplantage</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
           <t>2020-08-27</t>
@@ -2437,6 +2572,11 @@
           <t>6210</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rold skov </t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
           <t>2020-08-21</t>
@@ -2510,6 +2650,11 @@
           <t>4030</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Ø Bakker</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
           <t>2020-08-18</t>
@@ -2583,6 +2728,11 @@
           <t>6230</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Hammer Bakker</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
           <t>2020-08-09</t>
@@ -2656,6 +2806,11 @@
           <t>4010</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
           <t>2020-08-05</t>
@@ -2729,6 +2884,11 @@
           <t>2140</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Stenbjerg Klitplantage</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
           <t>2020-08-23</t>
@@ -2802,6 +2962,11 @@
           <t>6120</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Dokkedal</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
           <t>2020-08-03</t>
@@ -2875,6 +3040,11 @@
           <t>4010</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
           <t>2020-08-05</t>
@@ -2948,6 +3118,11 @@
           <t>4010</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
           <t>2020-08-05</t>
@@ -3021,6 +3196,11 @@
           <t>2140</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Stenbjerg Klitplantage</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
           <t>2020-08-23</t>
@@ -3094,6 +3274,11 @@
           <t>6210</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rold skov </t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
           <t>2020-08-21</t>
@@ -3167,6 +3352,11 @@
           <t>6210</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rold skov </t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
           <t>2020-08-21</t>
@@ -3240,6 +3430,11 @@
           <t>6120</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Lønstrup</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
           <t>2020-08-09</t>
@@ -3313,6 +3508,11 @@
           <t>6210</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Dokkedal</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
           <t>2020-08-16</t>
@@ -3386,6 +3586,11 @@
           <t>2140</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Lodbjerg Klitplantage</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
           <t>2020-08-23</t>
@@ -3459,6 +3664,11 @@
           <t>6120</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>DANKALK, Aggersund</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
           <t>2020-08-25</t>
@@ -3532,6 +3742,11 @@
           <t>6120</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Dokkedal</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
           <t>2020-08-03</t>
@@ -3605,6 +3820,11 @@
           <t>2140</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Lodbjerg Klitplantage</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
           <t>2020-08-23</t>
@@ -3678,6 +3898,11 @@
           <t>6210</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Nørresundby</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
           <t>2020-08-15</t>
@@ -3751,6 +3976,11 @@
           <t>4030</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Kompedal</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
           <t>2020-08-07</t>
@@ -3824,6 +4054,11 @@
           <t>4030</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Dall hede</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
           <t>2020-08-11</t>
@@ -3882,10 +4117,10 @@
         </is>
       </c>
       <c r="C49">
-        <v>56.305</v>
+        <v>57.305</v>
       </c>
       <c r="D49">
-        <v>9.235099999999999</v>
+        <v>10.23519</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -3955,10 +4190,10 @@
         </is>
       </c>
       <c r="C50">
-        <v>56.3053</v>
+        <v>57.30536</v>
       </c>
       <c r="D50">
-        <v>9.234400000000001</v>
+        <v>10.2344</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -4028,10 +4263,10 @@
         </is>
       </c>
       <c r="C51">
-        <v>56.3051</v>
+        <v>57.30517</v>
       </c>
       <c r="D51">
-        <v>9.2339</v>
+        <v>10.2339</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -4101,7 +4336,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>56.3148</v>
+        <v>56.31486</v>
       </c>
       <c r="D52">
         <v>9.139900000000001</v>
@@ -4174,10 +4409,10 @@
         </is>
       </c>
       <c r="C53">
-        <v>56.3146</v>
+        <v>56.31463</v>
       </c>
       <c r="D53">
-        <v>9.1394</v>
+        <v>9.139480000000001</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -4247,7 +4482,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>56.3141</v>
+        <v>56.31418</v>
       </c>
       <c r="D54">
         <v>9.1395</v>
@@ -4320,10 +4555,10 @@
         </is>
       </c>
       <c r="C55">
-        <v>56.301</v>
+        <v>57.30106</v>
       </c>
       <c r="D55">
-        <v>9.226900000000001</v>
+        <v>10.22691</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -4393,10 +4628,10 @@
         </is>
       </c>
       <c r="C56">
-        <v>56.3012</v>
+        <v>57.30128</v>
       </c>
       <c r="D56">
-        <v>9.2272</v>
+        <v>10.22727</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -4466,10 +4701,10 @@
         </is>
       </c>
       <c r="C57">
-        <v>56.3016</v>
+        <v>57.3016</v>
       </c>
       <c r="D57">
-        <v>9.2277</v>
+        <v>10.22777</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -4539,10 +4774,10 @@
         </is>
       </c>
       <c r="C58">
-        <v>56.3069</v>
+        <v>56.31329</v>
       </c>
       <c r="D58">
-        <v>9.1424</v>
+        <v>9.127090000000001</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -4615,7 +4850,7 @@
         <v>56.313</v>
       </c>
       <c r="D59">
-        <v>9.1267</v>
+        <v>9.12679</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -4685,10 +4920,10 @@
         </is>
       </c>
       <c r="C60">
-        <v>56.3129</v>
+        <v>56.31295</v>
       </c>
       <c r="D60">
-        <v>9.126200000000001</v>
+        <v>9.12627</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -4758,10 +4993,10 @@
         </is>
       </c>
       <c r="C61">
-        <v>57.3987</v>
+        <v>57.38387</v>
       </c>
       <c r="D61">
-        <v>10.4904</v>
+        <v>10.47473</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -4831,10 +5066,10 @@
         </is>
       </c>
       <c r="C62">
-        <v>57.3842</v>
+        <v>57.38427</v>
       </c>
       <c r="D62">
-        <v>10.4756</v>
+        <v>10.47554</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -4904,10 +5139,10 @@
         </is>
       </c>
       <c r="C63">
-        <v>57.3838</v>
+        <v>57.38398</v>
       </c>
       <c r="D63">
-        <v>10.4752</v>
+        <v>10.47529</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -4977,10 +5212,10 @@
         </is>
       </c>
       <c r="C64">
-        <v>57.4341</v>
+        <v>57.43413</v>
       </c>
       <c r="D64">
-        <v>10.4086</v>
+        <v>10.40868</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -5050,10 +5285,10 @@
         </is>
       </c>
       <c r="C65">
-        <v>57.4341</v>
+        <v>57.43424</v>
       </c>
       <c r="D65">
-        <v>10.4097</v>
+        <v>10.40979</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -5126,7 +5361,7 @@
         <v>57.4343</v>
       </c>
       <c r="D66">
-        <v>10.4093</v>
+        <v>10.40933</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -5196,10 +5431,10 @@
         </is>
       </c>
       <c r="C67">
-        <v>56.9034</v>
+        <v>56.90347</v>
       </c>
       <c r="D67">
-        <v>9.574</v>
+        <v>9.574020000000001</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -5269,10 +5504,10 @@
         </is>
       </c>
       <c r="C68">
-        <v>56.9263</v>
+        <v>56.92636</v>
       </c>
       <c r="D68">
-        <v>9.441000000000001</v>
+        <v>9.441079999999999</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -5342,10 +5577,10 @@
         </is>
       </c>
       <c r="C69">
-        <v>56.927</v>
+        <v>56.92709</v>
       </c>
       <c r="D69">
-        <v>9.4399</v>
+        <v>9.43994</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -5415,10 +5650,10 @@
         </is>
       </c>
       <c r="C70">
-        <v>56.3896</v>
+        <v>57.3896</v>
       </c>
       <c r="D70">
-        <v>9.4724</v>
+        <v>10.4724</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -5488,10 +5723,10 @@
         </is>
       </c>
       <c r="C71">
-        <v>56.3889</v>
+        <v>57.38898</v>
       </c>
       <c r="D71">
-        <v>9.4726</v>
+        <v>10.4726</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -5561,10 +5796,10 @@
         </is>
       </c>
       <c r="C72">
-        <v>56.9037</v>
+        <v>56.90378</v>
       </c>
       <c r="D72">
-        <v>9.573700000000001</v>
+        <v>9.573740000000001</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -5634,10 +5869,10 @@
         </is>
       </c>
       <c r="C73">
-        <v>56.3901</v>
+        <v>57.39018</v>
       </c>
       <c r="D73">
-        <v>9.472200000000001</v>
+        <v>10.47228</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -5707,10 +5942,10 @@
         </is>
       </c>
       <c r="C74">
-        <v>56.5995</v>
+        <v>56.59957</v>
       </c>
       <c r="D74">
-        <v>9.0138</v>
+        <v>10.01387</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -5780,10 +6015,10 @@
         </is>
       </c>
       <c r="C75">
-        <v>56.5997</v>
+        <v>56.59974</v>
       </c>
       <c r="D75">
-        <v>9.0131</v>
+        <v>10.01318</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -5853,10 +6088,10 @@
         </is>
       </c>
       <c r="C76">
-        <v>56.5998</v>
+        <v>56.59984</v>
       </c>
       <c r="D76">
-        <v>9.012</v>
+        <v>10.01206</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -5999,10 +6234,10 @@
         </is>
       </c>
       <c r="C78">
-        <v>56.9041</v>
+        <v>56.90416</v>
       </c>
       <c r="D78">
-        <v>9.5733</v>
+        <v>9.573370000000001</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -6072,10 +6307,10 @@
         </is>
       </c>
       <c r="C79">
-        <v>56.3937</v>
+        <v>57.39377</v>
       </c>
       <c r="D79">
-        <v>9.4696</v>
+        <v>10.46962</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -6145,7 +6380,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>56.1857</v>
+        <v>57.18572</v>
       </c>
       <c r="D80">
         <v>9.7751</v>
@@ -6218,10 +6453,10 @@
         </is>
       </c>
       <c r="C81">
-        <v>56.1858</v>
+        <v>57.18586</v>
       </c>
       <c r="D81">
-        <v>9.774900000000001</v>
+        <v>9.774929999999999</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -6291,10 +6526,10 @@
         </is>
       </c>
       <c r="C82">
-        <v>56.1859</v>
+        <v>57.18599</v>
       </c>
       <c r="D82">
-        <v>9.774900000000001</v>
+        <v>9.77506</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -6364,10 +6599,10 @@
         </is>
       </c>
       <c r="C83">
-        <v>56.4591</v>
+        <v>56.45918</v>
       </c>
       <c r="D83">
-        <v>9.891400000000001</v>
+        <v>8.89146</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -6437,10 +6672,10 @@
         </is>
       </c>
       <c r="C84">
-        <v>56.4586</v>
+        <v>56.45869</v>
       </c>
       <c r="D84">
-        <v>9.8911</v>
+        <v>8.89118</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -6510,10 +6745,10 @@
         </is>
       </c>
       <c r="C85">
-        <v>56.4595</v>
+        <v>56.45959</v>
       </c>
       <c r="D85">
-        <v>9.8917</v>
+        <v>8.8917</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -6583,10 +6818,10 @@
         </is>
       </c>
       <c r="C86">
-        <v>56.641</v>
+        <v>56.64066</v>
       </c>
       <c r="D86">
-        <v>9.5441</v>
+        <v>9.54477</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -6656,10 +6891,10 @@
         </is>
       </c>
       <c r="C87">
-        <v>56.2148</v>
+        <v>56.21469</v>
       </c>
       <c r="D87">
-        <v>10.5636</v>
+        <v>10.56378</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -6729,10 +6964,10 @@
         </is>
       </c>
       <c r="C88">
-        <v>56.2149</v>
+        <v>56.21494</v>
       </c>
       <c r="D88">
-        <v>10.5633</v>
+        <v>10.56333</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -6802,10 +7037,10 @@
         </is>
       </c>
       <c r="C89">
-        <v>56.2147</v>
+        <v>56.21475</v>
       </c>
       <c r="D89">
-        <v>10.5629</v>
+        <v>10.56291</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -6875,10 +7110,10 @@
         </is>
       </c>
       <c r="C90">
-        <v>56.3936</v>
+        <v>57.39363</v>
       </c>
       <c r="D90">
-        <v>9.470000000000001</v>
+        <v>10.47001</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -6948,10 +7183,10 @@
         </is>
       </c>
       <c r="C91">
-        <v>56.3935</v>
+        <v>57.39356</v>
       </c>
       <c r="D91">
-        <v>9.4703</v>
+        <v>10.47035</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -7021,10 +7256,10 @@
         </is>
       </c>
       <c r="C92">
-        <v>56.6405</v>
+        <v>56.64057</v>
       </c>
       <c r="D92">
-        <v>9.5451</v>
+        <v>9.545120000000001</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -7094,10 +7329,10 @@
         </is>
       </c>
       <c r="C93">
-        <v>56.6406</v>
+        <v>56.64066</v>
       </c>
       <c r="D93">
-        <v>9.545299999999999</v>
+        <v>9.545310000000001</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -7167,10 +7402,10 @@
         </is>
       </c>
       <c r="C94">
-        <v>56.8875</v>
+        <v>55.88759</v>
       </c>
       <c r="D94">
-        <v>9.712</v>
+        <v>8.71209</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -7240,10 +7475,10 @@
         </is>
       </c>
       <c r="C95">
-        <v>56.8877</v>
+        <v>55.88773</v>
       </c>
       <c r="D95">
-        <v>9.7118</v>
+        <v>8.711869999999999</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -7313,10 +7548,10 @@
         </is>
       </c>
       <c r="C96">
-        <v>56.8878</v>
+        <v>55.88778</v>
       </c>
       <c r="D96">
-        <v>9.711600000000001</v>
+        <v>8.71149</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -7386,10 +7621,10 @@
         </is>
       </c>
       <c r="C97">
-        <v>56.1178</v>
+        <v>56.11784</v>
       </c>
       <c r="D97">
-        <v>9.601000000000001</v>
+        <v>9.60106</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -7462,7 +7697,7 @@
         <v>56.1179</v>
       </c>
       <c r="D98">
-        <v>9.5999</v>
+        <v>9.599909999999999</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -7532,10 +7767,10 @@
         </is>
       </c>
       <c r="C99">
-        <v>56.1176</v>
+        <v>56.11766</v>
       </c>
       <c r="D99">
-        <v>9.600199999999999</v>
+        <v>9.60026</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -7605,10 +7840,10 @@
         </is>
       </c>
       <c r="C100">
-        <v>56.8127</v>
+        <v>56.81276</v>
       </c>
       <c r="D100">
-        <v>9.832000000000001</v>
+        <v>9.832079999999999</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -7678,10 +7913,10 @@
         </is>
       </c>
       <c r="C101">
-        <v>56.8125</v>
+        <v>56.81254</v>
       </c>
       <c r="D101">
-        <v>9.8322</v>
+        <v>9.832269999999999</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -7751,10 +7986,10 @@
         </is>
       </c>
       <c r="C102">
-        <v>56.8125</v>
+        <v>56.81254</v>
       </c>
       <c r="D102">
-        <v>9.832700000000001</v>
+        <v>9.832739999999999</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -7839,6 +8074,11 @@
           <t>6210</t>
         </is>
       </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Dall hede</t>
+        </is>
+      </c>
       <c r="H103" t="inlineStr">
         <is>
           <t>2020-09-20</t>
@@ -7912,6 +8152,11 @@
           <t>6230</t>
         </is>
       </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Frejstrup hede</t>
+        </is>
+      </c>
       <c r="H104" t="inlineStr">
         <is>
           <t>2020-09-16</t>
@@ -7985,6 +8230,11 @@
           <t>6120</t>
         </is>
       </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Bjerget</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr">
         <is>
           <t>2020-09-14</t>
@@ -8058,6 +8308,11 @@
           <t>6210</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Dall hede</t>
+        </is>
+      </c>
       <c r="H106" t="inlineStr">
         <is>
           <t>2020-09-20</t>
@@ -8131,6 +8386,11 @@
           <t>6120</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Bjerget</t>
+        </is>
+      </c>
       <c r="H107" t="inlineStr">
         <is>
           <t>2020-09-14</t>
@@ -8204,6 +8464,11 @@
           <t>6230</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Frejstrup hede</t>
+        </is>
+      </c>
       <c r="H108" t="inlineStr">
         <is>
           <t>2020-09-16</t>
@@ -8277,6 +8542,11 @@
           <t>6230</t>
         </is>
       </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Frejstrup hede</t>
+        </is>
+      </c>
       <c r="H109" t="inlineStr">
         <is>
           <t>2020-09-16</t>
@@ -8348,6 +8618,11 @@
       <c r="F110" t="inlineStr">
         <is>
           <t>6210</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Dall hede</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">

--- a/analysis/metadata/P08_2/P08_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_2/P08_2_minimal_metadata.xlsx
@@ -815,17 +815,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -893,17 +883,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -971,17 +951,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -1049,17 +1019,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -1907,17 +1867,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -1985,17 +1935,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -2219,17 +2159,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -2375,17 +2305,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -2453,17 +2373,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -2531,17 +2441,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -2687,17 +2587,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -2843,17 +2733,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -3077,17 +2957,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -3155,17 +3025,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Wet heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -4013,17 +3873,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>
@@ -4091,17 +3941,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Heath and scrub</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Temperate heath</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>Dry heath</t>
+          <t>Temperate heath and scrub</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P08_2/P08_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P08_2/P08_2_minimal_metadata.xlsx
@@ -775,7 +775,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -816,6 +816,16 @@
       <c r="N6" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -843,7 +853,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -884,6 +894,16 @@
       <c r="N7" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -911,7 +931,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -952,6 +972,16 @@
       <c r="N8" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -979,7 +1009,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1020,6 +1050,16 @@
       <c r="N9" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1867,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1868,6 +1908,16 @@
       <c r="N20" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1945,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1936,6 +1986,16 @@
       <c r="N21" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -2119,7 +2179,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2160,6 +2220,16 @@
       <c r="N24" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2335,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2306,6 +2376,16 @@
       <c r="N26" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2413,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2374,6 +2454,16 @@
       <c r="N27" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2491,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2442,6 +2532,16 @@
       <c r="N28" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -2547,7 +2647,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2588,6 +2688,16 @@
       <c r="N30" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -2693,7 +2803,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2734,6 +2844,16 @@
       <c r="N32" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -2917,7 +3037,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2958,6 +3078,16 @@
       <c r="N35" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -2985,7 +3115,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4010</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3026,6 +3156,16 @@
       <c r="N36" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Wet heath</t>
         </is>
       </c>
     </row>
@@ -3833,7 +3973,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3874,6 +4014,16 @@
       <c r="N47" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
@@ -3901,7 +4051,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4030</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3942,6 +4092,16 @@
       <c r="N48" t="inlineStr">
         <is>
           <t>Temperate heath and scrub</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Temperate heath</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Dry heath</t>
         </is>
       </c>
     </row>
